--- a/03_plots_and_tables/t_test_hospital.xlsx
+++ b/03_plots_and_tables/t_test_hospital.xlsx
@@ -392,7 +392,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(N=44)</t>
+          <t>(N=38)</t>
         </is>
       </c>
     </row>
@@ -411,17 +411,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.190 (0.00900, 0.872)</t>
+          <t>0.206 (0, 0.995)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0608 (0.00600, 0.219)</t>
+          <t>0.0318 (0, 0.218)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.411 (0.0880, 0.993)</t>
+          <t>0.768 (0.0740, 1.00)</t>
         </is>
       </c>
     </row>
@@ -440,17 +440,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.196 (0.00900, 0.800)</t>
+          <t>0.220 (0, 0.983)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0677 (0.00500, 0.270)</t>
+          <t>0.0440 (0, 0.328)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.415 (0.0800, 0.985)</t>
+          <t>0.814 (0.103, 1.00)</t>
         </is>
       </c>
     </row>
@@ -469,17 +469,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.368 (0.0750, 0.884)</t>
+          <t>0.523 (0.00100, 1.00)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.212 (0.0560, 0.505)</t>
+          <t>0.242 (0, 0.948)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.393 (0.143, 0.989)</t>
+          <t>0.981 (0.662, 1.00)</t>
         </is>
       </c>
     </row>
@@ -498,17 +498,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.240 (0.0380, 0.803)</t>
+          <t>0.263 (0.00100, 0.998)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.114 (0.0300, 0.321)</t>
+          <t>0.0623 (0, 0.430)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.406 (0.123, 0.987)</t>
+          <t>0.867 (0.148, 1.00)</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.117 (0, 0.866)</t>
+          <t>0.151 (0, 0.908)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0357 (0, 0.225)</t>
+          <t>0.0567 (0, 0.315)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.452 (0.0530, 1.00)</t>
+          <t>0.770 (0.127, 0.999)</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.979 (0.913, 0.996)</t>
+          <t>0.000289 (0, 0.00300)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.990 (0.970, 0.996)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.437 (0.0190, 0.977)</t>
+          <t>0.0269 (0, 0.488)</t>
         </is>
       </c>
     </row>
@@ -585,17 +585,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.864 (0.0800, 1.00)</t>
+          <t>0.0904 (0, 0.888)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.869 (0.0990, 1.00)</t>
+          <t>0.0908 (0, 0.860)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.414 (0.0270, 1.00)</t>
+          <t>0.181 (0, 0.679)</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.103 (0, 0.742)</t>
+          <t>0.0831 (0, 0.682)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0934 (0, 0.713)</t>
+          <t>0.0782 (0, 0.650)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.591 (0.00600, 0.954)</t>
+          <t>0.391 (0.00300, 0.815)</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.0809 (0, 0.687)</t>
+          <t>0.0888 (0, 0.798)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0127 (0, 0.104)</t>
+          <t>0.0108 (0, 0.0950)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.472 (0.0220, 0.945)</t>
+          <t>0.648 (0.0380, 1.00)</t>
         </is>
       </c>
     </row>
@@ -672,17 +672,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.0963 (0, 0.769)</t>
+          <t>0.103 (0, 0.822)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0380 (0, 0.358)</t>
+          <t>0.0411 (0, 0.395)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.540 (0.0310, 0.883)</t>
+          <t>0.694 (0.0310, 0.983)</t>
         </is>
       </c>
     </row>
